--- a/data/output/FV2304_FV2210/UTILMD/11171.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11171.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7654" uniqueCount="472">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7675" uniqueCount="472">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1577,6 +1577,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U355" totalsRowShown="0">
+  <autoFilter ref="A1:U355"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1866,7 +1896,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18170,5 +18203,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11171.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11171.xlsx
@@ -3041,7 +3041,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5523,7 +5523,7 @@
         <v>431</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5675,7 +5675,7 @@
         <v>431</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6055,7 +6055,7 @@
         <v>433</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6247,7 +6247,7 @@
         <v>435</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6777,7 +6777,7 @@
         <v>437</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -7269,7 +7269,7 @@
         <v>439</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -7665,7 +7665,7 @@
         <v>440</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7915,7 +7915,7 @@
         <v>442</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -9103,7 +9103,7 @@
         <v>443</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9391,7 +9391,7 @@
         <v>444</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9637,7 +9637,7 @@
         <v>445</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10981,7 +10981,7 @@
         <v>447</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -11661,7 +11661,7 @@
         <v>449</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11951,7 +11951,7 @@
         <v>450</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13079,7 +13079,7 @@
         <v>453</v>
       </c>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -13287,7 +13287,7 @@
         <v>454</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -13441,7 +13441,7 @@
         <v>454</v>
       </c>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -13647,7 +13647,7 @@
         <v>455</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13935,7 +13935,7 @@
         <v>456</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -14075,7 +14075,7 @@
         <v>457</v>
       </c>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -14433,7 +14433,7 @@
         <v>459</v>
       </c>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -14587,7 +14587,7 @@
         <v>459</v>
       </c>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -14939,7 +14939,7 @@
         <v>461</v>
       </c>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -15335,7 +15335,7 @@
         <v>462</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -15585,7 +15585,7 @@
         <v>442</v>
       </c>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -15773,7 +15773,7 @@
         <v>463</v>
       </c>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -16107,7 +16107,7 @@
         <v>464</v>
       </c>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -16295,7 +16295,7 @@
         <v>465</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -16541,7 +16541,7 @@
         <v>466</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -16679,7 +16679,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -16961,7 +16961,7 @@
         <v>467</v>
       </c>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="K289" s="2"/>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -17421,7 +17421,7 @@
         <v>469</v>
       </c>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -17559,7 +17559,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -17839,7 +17839,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -18351,7 +18351,7 @@
         <v>466</v>
       </c>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -18489,7 +18489,7 @@
       </c>
       <c r="K317" s="2"/>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -18633,7 +18633,7 @@
       </c>
       <c r="K320" s="2"/>
       <c r="L320" s="4"/>
-      <c r="M320" s="2" t="s">
+      <c r="M320" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N320" s="2" t="s">
@@ -18769,7 +18769,7 @@
       </c>
       <c r="K323" s="2"/>
       <c r="L323" s="4"/>
-      <c r="M323" s="2" t="s">
+      <c r="M323" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N323" s="2" t="s">
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K326" s="2"/>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -19065,7 +19065,7 @@
         <v>470</v>
       </c>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -19337,7 +19337,7 @@
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -19487,7 +19487,7 @@
         <v>472</v>
       </c>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -19625,7 +19625,7 @@
       </c>
       <c r="K341" s="2"/>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="K344" s="2"/>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -19919,7 +19919,7 @@
       </c>
       <c r="K347" s="2"/>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -20055,7 +20055,7 @@
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -20203,7 +20203,7 @@
       </c>
       <c r="K353" s="2"/>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N353" s="2"/>
